--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lama1-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lama1-Itga2.xlsx
@@ -546,34 +546,34 @@
         <v>0.7141772151898734</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.888921</v>
+        <v>0.229822</v>
       </c>
       <c r="N2">
-        <v>5.666763</v>
+        <v>0.689466</v>
       </c>
       <c r="O2">
-        <v>0.4551532417350329</v>
+        <v>0.09226175421862418</v>
       </c>
       <c r="P2">
-        <v>0.4551532417350329</v>
+        <v>0.09226175421862419</v>
       </c>
       <c r="Q2">
-        <v>0.037300522987</v>
+        <v>0.004538295034</v>
       </c>
       <c r="R2">
-        <v>0.335704706883</v>
+        <v>0.040844655306</v>
       </c>
       <c r="S2">
-        <v>0.3250600746669691</v>
+        <v>0.06589124269638957</v>
       </c>
       <c r="T2">
-        <v>0.3250600746669691</v>
+        <v>0.06589124269638957</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>3.261295</v>
       </c>
       <c r="O3">
-        <v>0.2619465454094788</v>
+        <v>0.4364142651333466</v>
       </c>
       <c r="P3">
-        <v>0.2619465454094788</v>
+        <v>0.4364142651333466</v>
       </c>
       <c r="Q3">
         <v>0.02146693078833333</v>
@@ -632,10 +632,10 @@
         <v>0.193202377095</v>
       </c>
       <c r="S3">
-        <v>0.1870762543291493</v>
+        <v>0.3116771245420685</v>
       </c>
       <c r="T3">
-        <v>0.1870762543291493</v>
+        <v>0.3116771245420685</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,16 +676,16 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.174057666666667</v>
+        <v>1.174057666666666</v>
       </c>
       <c r="N4">
         <v>3.522173</v>
       </c>
       <c r="O4">
-        <v>0.2829002128554884</v>
+        <v>0.4713239806480292</v>
       </c>
       <c r="P4">
-        <v>0.2829002128554884</v>
+        <v>0.4713239806480293</v>
       </c>
       <c r="Q4">
         <v>0.02318411674366666</v>
@@ -694,10 +694,10 @@
         <v>0.208657050693</v>
       </c>
       <c r="S4">
-        <v>0.2020408861937551</v>
+        <v>0.3366088479514153</v>
       </c>
       <c r="T4">
-        <v>0.2020408861937551</v>
+        <v>0.3366088479514154</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,34 +732,34 @@
         <v>0.2858227848101266</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.888921</v>
+        <v>0.229822</v>
       </c>
       <c r="N5">
-        <v>5.666763</v>
+        <v>0.689466</v>
       </c>
       <c r="O5">
-        <v>0.4551532417350329</v>
+        <v>0.09226175421862418</v>
       </c>
       <c r="P5">
-        <v>0.4551532417350329</v>
+        <v>0.09226175421862419</v>
       </c>
       <c r="Q5">
-        <v>0.014928142663</v>
+        <v>0.001816283266</v>
       </c>
       <c r="R5">
-        <v>0.134353283967</v>
+        <v>0.016346549394</v>
       </c>
       <c r="S5">
-        <v>0.1300931670680639</v>
+        <v>0.02637051152223461</v>
       </c>
       <c r="T5">
-        <v>0.1300931670680639</v>
+        <v>0.02637051152223462</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,22 +806,22 @@
         <v>3.261295</v>
       </c>
       <c r="O6">
-        <v>0.2619465454094788</v>
+        <v>0.4364142651333466</v>
       </c>
       <c r="P6">
-        <v>0.2619465454094788</v>
+        <v>0.4364142651333466</v>
       </c>
       <c r="Q6">
-        <v>0.008591338128333336</v>
+        <v>0.008591338128333334</v>
       </c>
       <c r="R6">
-        <v>0.07732204315500002</v>
+        <v>0.07732204315499999</v>
       </c>
       <c r="S6">
-        <v>0.07487029108032953</v>
+        <v>0.1247371405912781</v>
       </c>
       <c r="T6">
-        <v>0.07487029108032951</v>
+        <v>0.1247371405912781</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.174057666666667</v>
+        <v>1.174057666666666</v>
       </c>
       <c r="N7">
         <v>3.522173</v>
       </c>
       <c r="O7">
-        <v>0.2829002128554884</v>
+        <v>0.4713239806480292</v>
       </c>
       <c r="P7">
-        <v>0.2829002128554884</v>
+        <v>0.4713239806480293</v>
       </c>
       <c r="Q7">
-        <v>0.009278577739666668</v>
+        <v>0.009278577739666666</v>
       </c>
       <c r="R7">
-        <v>0.083507199657</v>
+        <v>0.08350719965699999</v>
       </c>
       <c r="S7">
-        <v>0.08085932666173327</v>
+        <v>0.1347151326966139</v>
       </c>
       <c r="T7">
-        <v>0.08085932666173327</v>
+        <v>0.134715132696614</v>
       </c>
     </row>
   </sheetData>
